--- a/src/test/testResources/excels/wrongHeading.xlsx
+++ b/src/test/testResources/excels/wrongHeading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreyserebryanskiy/IdeaProjects/badgeGenerator/src/test/testResources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreyserebryanskiy/IdeaProjects/badgeGenerator/src/test/testResources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,7 +65,7 @@
     <t>Сергеев</t>
   </si>
   <si>
-    <t>Позиция</t>
+    <t>Позиция в компании</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
